--- a/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Thbs2-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H2">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J2">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N2">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O2">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P2">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q2">
-        <v>58.25720754807224</v>
+        <v>123.2543260898561</v>
       </c>
       <c r="R2">
-        <v>58.25720754807224</v>
+        <v>1109.288934808705</v>
       </c>
       <c r="S2">
-        <v>0.01506957052910934</v>
+        <v>0.02387608255444808</v>
       </c>
       <c r="T2">
-        <v>0.01506957052910934</v>
+        <v>0.02387608255444807</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H3">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J3">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N3">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P3">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q3">
-        <v>0.5909701467482974</v>
+        <v>0.9845652159894445</v>
       </c>
       <c r="R3">
-        <v>0.5909701467482974</v>
+        <v>8.861086943905001</v>
       </c>
       <c r="S3">
-        <v>0.0001528680601395605</v>
+        <v>0.0001907240185635696</v>
       </c>
       <c r="T3">
-        <v>0.0001528680601395605</v>
+        <v>0.0001907240185635696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.765328011989419</v>
+        <v>1.191131666666666</v>
       </c>
       <c r="H4">
-        <v>0.765328011989419</v>
+        <v>3.573395</v>
       </c>
       <c r="I4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="J4">
-        <v>0.01775829266561649</v>
+        <v>0.02720036629735778</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N4">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q4">
-        <v>9.80331701910173</v>
+        <v>16.17622117053055</v>
       </c>
       <c r="R4">
-        <v>9.80331701910173</v>
+        <v>145.585990534775</v>
       </c>
       <c r="S4">
-        <v>0.002535854076367586</v>
+        <v>0.003133559724346136</v>
       </c>
       <c r="T4">
-        <v>0.002535854076367586</v>
+        <v>0.003133559724346135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H5">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J5">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N5">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O5">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P5">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q5">
-        <v>2602.397245281154</v>
+        <v>3561.16590217054</v>
       </c>
       <c r="R5">
-        <v>2602.397245281154</v>
+        <v>32050.49311953486</v>
       </c>
       <c r="S5">
-        <v>0.6731700759972649</v>
+        <v>0.6898475190909111</v>
       </c>
       <c r="T5">
-        <v>0.6731700759972649</v>
+        <v>0.6898475190909109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H6">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J6">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N6">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P6">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q6">
-        <v>26.3991211846552</v>
+        <v>28.44687230765967</v>
       </c>
       <c r="R6">
-        <v>26.3991211846552</v>
+        <v>256.021850768937</v>
       </c>
       <c r="S6">
-        <v>0.006828741632876811</v>
+        <v>0.005510556044405032</v>
       </c>
       <c r="T6">
-        <v>0.006828741632876811</v>
+        <v>0.00551055604440503</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.1878300379276</v>
+        <v>34.415161</v>
       </c>
       <c r="H7">
-        <v>34.1878300379276</v>
+        <v>103.245483</v>
       </c>
       <c r="I7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735307</v>
       </c>
       <c r="J7">
-        <v>0.7932774991963398</v>
+        <v>0.7858954736735306</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N7">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q7">
-        <v>437.92221218424</v>
+        <v>467.3767573599484</v>
       </c>
       <c r="R7">
-        <v>437.92221218424</v>
+        <v>4206.390816239536</v>
       </c>
       <c r="S7">
-        <v>0.1132786815661982</v>
+        <v>0.09053739853821471</v>
       </c>
       <c r="T7">
-        <v>0.1132786815661982</v>
+        <v>0.09053739853821467</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H8">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J8">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N8">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O8">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P8">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q8">
-        <v>619.909092610563</v>
+        <v>846.927796336939</v>
       </c>
       <c r="R8">
-        <v>619.909092610563</v>
+        <v>7622.350167032451</v>
       </c>
       <c r="S8">
-        <v>0.160353786010469</v>
+        <v>0.1640617301193599</v>
       </c>
       <c r="T8">
-        <v>0.160353786010469</v>
+        <v>0.1640617301193598</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H9">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J9">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N9">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P9">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q9">
-        <v>6.288453958737522</v>
+        <v>6.765325609099001</v>
       </c>
       <c r="R9">
-        <v>6.288453958737522</v>
+        <v>60.88793048189101</v>
       </c>
       <c r="S9">
-        <v>0.00162665366979794</v>
+        <v>0.001310537957368001</v>
       </c>
       <c r="T9">
-        <v>0.00162665366979794</v>
+        <v>0.001310537957368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.14377848561171</v>
+        <v>8.184723</v>
       </c>
       <c r="H10">
-        <v>8.14377848561171</v>
+        <v>24.554169</v>
       </c>
       <c r="I10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="J10">
-        <v>0.1889642081380437</v>
+        <v>0.1869041600291116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N10">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q10">
-        <v>104.3161114935063</v>
+        <v>111.153026296445</v>
       </c>
       <c r="R10">
-        <v>104.3161114935063</v>
+        <v>1000.377236668005</v>
       </c>
       <c r="S10">
-        <v>0.02698376845777679</v>
+        <v>0.02153189195238378</v>
       </c>
       <c r="T10">
-        <v>0.02698376845777679</v>
+        <v>0.02153189195238377</v>
       </c>
     </row>
   </sheetData>
